--- a/v0.7/ValueSet-claim-service-categories.xlsx
+++ b/v0.7/ValueSet-claim-service-categories.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hcx-project.github.io/hcx-specs/v0.7/ValueSet-claim-service-categories.html</t>
+    <t>https://ig.hcxprotocol.io/v0.7/ValueSet-claim-service-categories.html</t>
   </si>
   <si>
     <t>Version</t>

--- a/v0.7/ValueSet-claim-service-categories.xlsx
+++ b/v0.7/ValueSet-claim-service-categories.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
   <si>
     <t>Property</t>
   </si>
@@ -168,7 +168,19 @@
     <t>900000</t>
   </si>
   <si>
-    <t>Package Charges</t>
+    <t>Provider Package Charges</t>
+  </si>
+  <si>
+    <t>HBP</t>
+  </si>
+  <si>
+    <t>NHA Package Charges</t>
+  </si>
+  <si>
+    <t>MJPJAY</t>
+  </si>
+  <si>
+    <t>Mahatma Jyotibha Phule PMJAY Package Charges</t>
   </si>
 </sst>
 </file>
@@ -423,7 +435,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -641,6 +653,48 @@
         <v>35</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/v0.7/ValueSet-claim-service-categories.xlsx
+++ b/v0.7/ValueSet-claim-service-categories.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>Property</t>
   </si>
@@ -111,7 +111,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>http://hcxprotocol.io/codes/service-category</t>
+    <t>https://irdai.gov.in/benefit-billing-group-code</t>
   </si>
   <si>
     <t>100000</t>
@@ -171,10 +171,16 @@
     <t>Provider Package Charges</t>
   </si>
   <si>
+    <t>https://pmjay.gov.in/benefit-billing-group-code</t>
+  </si>
+  <si>
     <t>HBP</t>
   </si>
   <si>
     <t>NHA Package Charges</t>
+  </si>
+  <si>
+    <t>https://mjpjay.gov.in/benefit-billing-group-code</t>
   </si>
   <si>
     <t>MJPJAY</t>
@@ -658,14 +664,14 @@
         <v>31</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>35</v>
@@ -679,14 +685,14 @@
         <v>31</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>35</v>
